--- a/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="607"/>
   </bookViews>
   <sheets>
     <sheet name="New Retailers Format" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>RType</t>
   </si>
@@ -100,29 +102,101 @@
     <t>Natore</t>
   </si>
   <si>
-    <t xml:space="preserve">Vai Vai Telecom </t>
-  </si>
-  <si>
-    <t>Halsa</t>
-  </si>
-  <si>
-    <t>Md Shamimul Islam</t>
-  </si>
-  <si>
-    <t>Bagrom Bazar, Halsa, Natore</t>
-  </si>
-  <si>
-    <t>Natore Sadar</t>
-  </si>
-  <si>
     <t>DSR-0248</t>
+  </si>
+  <si>
+    <t>Liton Telecom Charghat</t>
+  </si>
+  <si>
+    <t>Charghat</t>
+  </si>
+  <si>
+    <t>Md Liton Ali</t>
+  </si>
+  <si>
+    <t>Rajshahi</t>
+  </si>
+  <si>
+    <t>Charghat Bazar, Charghat</t>
+  </si>
+  <si>
+    <t>Jakir Telecom</t>
+  </si>
+  <si>
+    <t>Puthia</t>
+  </si>
+  <si>
+    <t>Md Jakir Hossain</t>
+  </si>
+  <si>
+    <t>Puthia , Rajshahi</t>
+  </si>
+  <si>
+    <t>Reja Electronics</t>
+  </si>
+  <si>
+    <t>Chaskoir</t>
+  </si>
+  <si>
+    <t>Md Rejaul Karim</t>
+  </si>
+  <si>
+    <t>Gurudaspur</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>Chaskoir Bazar, Gurudaspur, Natore.</t>
+  </si>
+  <si>
+    <t>traesyui</t>
+  </si>
+  <si>
+    <t>vbx</t>
+  </si>
+  <si>
+    <t>Roktim Electronics</t>
+  </si>
+  <si>
+    <t>Salampur</t>
+  </si>
+  <si>
+    <t>Nilima Mobile</t>
+  </si>
+  <si>
+    <t>Singra</t>
+  </si>
+  <si>
+    <t>Md Kawsar Hossain(Pintu)</t>
+  </si>
+  <si>
+    <t>Lalpur</t>
+  </si>
+  <si>
+    <t>Salampur, Lalpur, Natore</t>
+  </si>
+  <si>
+    <t>Singra Natore</t>
+  </si>
+  <si>
+    <t>DSR-0350</t>
+  </si>
+  <si>
+    <t>DSR-0247</t>
+  </si>
+  <si>
+    <t>DSR-0351</t>
+  </si>
+  <si>
+    <t>Md Ashikur Rahman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,9 +377,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,17 +588,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6" bestFit="1" customWidth="1"/>
@@ -547,7 +623,7 @@
     <col min="21" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="15.75">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -609,21 +685,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="5" customFormat="1">
+    <row r="2" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -631,26 +707,26 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1">
-        <v>1713762754</v>
+        <v>1711466032</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <v>1713762754</v>
+        <v>1711466032</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
@@ -662,98 +738,234 @@
         <v>21</v>
       </c>
       <c r="T2" s="1">
-        <v>1713762754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="5" customFormat="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>1711466032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1848015522</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="P3" s="1">
+        <v>1848015522</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1848015522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1752545428</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="P4" s="1">
+        <v>1752545428</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1752545428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1715836897</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="P5" s="1">
+        <v>1715836897</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1715836897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1725244020</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="P6" s="1">
+        <v>1725244020</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1725244020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -775,7 +987,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -797,7 +1009,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -819,7 +1031,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="6" t="s">
         <v>25</v>
       </c>
@@ -828,4 +1040,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E9:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="New Retailers Format" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>RType</t>
   </si>
@@ -102,94 +100,34 @@
     <t>Natore</t>
   </si>
   <si>
-    <t>DSR-0248</t>
-  </si>
-  <si>
-    <t>Liton Telecom Charghat</t>
-  </si>
-  <si>
-    <t>Charghat</t>
-  </si>
-  <si>
-    <t>Md Liton Ali</t>
-  </si>
-  <si>
-    <t>Rajshahi</t>
-  </si>
-  <si>
-    <t>Charghat Bazar, Charghat</t>
-  </si>
-  <si>
-    <t>Jakir Telecom</t>
-  </si>
-  <si>
-    <t>Puthia</t>
-  </si>
-  <si>
-    <t>Md Jakir Hossain</t>
-  </si>
-  <si>
-    <t>Puthia , Rajshahi</t>
-  </si>
-  <si>
-    <t>Reja Electronics</t>
-  </si>
-  <si>
-    <t>Chaskoir</t>
-  </si>
-  <si>
-    <t>Md Rejaul Karim</t>
-  </si>
-  <si>
-    <t>Gurudaspur</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>Chaskoir Bazar, Gurudaspur, Natore.</t>
-  </si>
-  <si>
-    <t>traesyui</t>
-  </si>
-  <si>
-    <t>vbx</t>
-  </si>
-  <si>
-    <t>Roktim Electronics</t>
-  </si>
-  <si>
-    <t>Salampur</t>
-  </si>
-  <si>
-    <t>Nilima Mobile</t>
-  </si>
-  <si>
-    <t>Singra</t>
-  </si>
-  <si>
-    <t>Md Kawsar Hossain(Pintu)</t>
-  </si>
-  <si>
-    <t>Lalpur</t>
-  </si>
-  <si>
-    <t>Salampur, Lalpur, Natore</t>
-  </si>
-  <si>
-    <t>Singra Natore</t>
-  </si>
-  <si>
-    <t>DSR-0350</t>
-  </si>
-  <si>
-    <t>DSR-0247</t>
-  </si>
-  <si>
-    <t>DSR-0351</t>
-  </si>
-  <si>
-    <t>Md Ashikur Rahman</t>
+    <t>HS Mobile Center</t>
+  </si>
+  <si>
+    <t>Kanaikhali</t>
+  </si>
+  <si>
+    <t>Abu Hamza</t>
+  </si>
+  <si>
+    <t>Natore Sadar</t>
+  </si>
+  <si>
+    <t>Kanaikhali, Natore Sadar, Natore</t>
+  </si>
+  <si>
+    <t>DSR-0</t>
+  </si>
+  <si>
+    <t>Farha Telecom</t>
+  </si>
+  <si>
+    <t>Bagatipara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Shuvo </t>
+  </si>
+  <si>
+    <t>Bagatipara, Natore</t>
   </si>
 </sst>
 </file>
@@ -594,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,16 +628,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -707,26 +645,26 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1">
-        <v>1711466032</v>
+        <v>1737356298</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <v>1711466032</v>
+        <v>1737356298</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
@@ -738,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="T2" s="1">
-        <v>1711466032</v>
+        <v>1737356298</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -746,16 +684,16 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -763,26 +701,26 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1">
-        <v>1848015522</v>
+        <v>1742752551</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <v>1848015522</v>
+        <v>1742752551</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>22</v>
@@ -794,176 +732,74 @@
         <v>21</v>
       </c>
       <c r="T3" s="1">
-        <v>1848015522</v>
+        <v>1742752551</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1752545428</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1">
-        <v>1752545428</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1752545428</v>
-      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1715836897</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1">
-        <v>1715836897</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1715836897</v>
-      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1725244020</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1">
-        <v>1725244020</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1725244020</v>
-      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1040,34 +876,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>RType</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Kanaikhali, Natore Sadar, Natore</t>
   </si>
   <si>
-    <t>DSR-0</t>
-  </si>
-  <si>
     <t>Farha Telecom</t>
   </si>
   <si>
@@ -128,6 +125,93 @@
   </si>
   <si>
     <t>Bagatipara, Natore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Zia Uddin Shuvo </t>
+  </si>
+  <si>
+    <t>Jewel Telecom &amp; Computer</t>
+  </si>
+  <si>
+    <t>Naldanga</t>
+  </si>
+  <si>
+    <t>Md Jewel Reza</t>
+  </si>
+  <si>
+    <t>Naldanga, Natore</t>
+  </si>
+  <si>
+    <t>Milon Telecom</t>
+  </si>
+  <si>
+    <t>Chanpur</t>
+  </si>
+  <si>
+    <t>Md Milon Ali</t>
+  </si>
+  <si>
+    <t>Lalpur</t>
+  </si>
+  <si>
+    <t>Chanpur Bazar, Lalpur, Natore</t>
+  </si>
+  <si>
+    <t>Trisha Electronics</t>
+  </si>
+  <si>
+    <t>Singra</t>
+  </si>
+  <si>
+    <t>Sri Ashish Chando P</t>
+  </si>
+  <si>
+    <t>Sigra</t>
+  </si>
+  <si>
+    <t>Singra, Natore</t>
+  </si>
+  <si>
+    <t>Bismillah Telecom Shardah</t>
+  </si>
+  <si>
+    <t>Shardah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Lalchad </t>
+  </si>
+  <si>
+    <t>Charghat</t>
+  </si>
+  <si>
+    <t>Shardah Bazar</t>
+  </si>
+  <si>
+    <t>DSR-0246</t>
+  </si>
+  <si>
+    <t>DSR-0350</t>
+  </si>
+  <si>
+    <t>DSR-0247</t>
+  </si>
+  <si>
+    <t>DSR-0619</t>
+  </si>
+  <si>
+    <t>DSR-0351</t>
+  </si>
+  <si>
+    <t>Ma Electronics Nandangachi</t>
+  </si>
+  <si>
+    <t>Nandangachi</t>
+  </si>
+  <si>
+    <t>Md Sujon Ali</t>
+  </si>
+  <si>
+    <t>Puthia</t>
   </si>
 </sst>
 </file>
@@ -532,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -684,16 +768,16 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -701,7 +785,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1">
         <v>1742752551</v>
@@ -710,13 +794,13 @@
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
@@ -736,114 +820,284 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1744747452</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="P4" s="1">
+        <v>1744747452</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1744747452</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1773666320</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="P5" s="1">
+        <v>1773666320</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1773666320</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1724340349</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="P6" s="1">
+        <v>1724340349</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1724340349</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1737665665</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="P7" s="1">
+        <v>1737665665</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1737665665</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="4"/>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1762811173</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="P8" s="1">
+        <v>1762811173</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1762811173</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>

--- a/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>RType</t>
   </si>
@@ -100,96 +100,9 @@
     <t>Natore</t>
   </si>
   <si>
-    <t>HS Mobile Center</t>
-  </si>
-  <si>
-    <t>Kanaikhali</t>
-  </si>
-  <si>
-    <t>Abu Hamza</t>
-  </si>
-  <si>
-    <t>Natore Sadar</t>
-  </si>
-  <si>
-    <t>Kanaikhali, Natore Sadar, Natore</t>
-  </si>
-  <si>
-    <t>Farha Telecom</t>
-  </si>
-  <si>
-    <t>Bagatipara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md Shuvo </t>
-  </si>
-  <si>
-    <t>Bagatipara, Natore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md Zia Uddin Shuvo </t>
-  </si>
-  <si>
-    <t>Jewel Telecom &amp; Computer</t>
-  </si>
-  <si>
-    <t>Naldanga</t>
-  </si>
-  <si>
-    <t>Md Jewel Reza</t>
-  </si>
-  <si>
-    <t>Naldanga, Natore</t>
-  </si>
-  <si>
-    <t>Milon Telecom</t>
-  </si>
-  <si>
-    <t>Chanpur</t>
-  </si>
-  <si>
-    <t>Md Milon Ali</t>
-  </si>
-  <si>
     <t>Lalpur</t>
   </si>
   <si>
-    <t>Chanpur Bazar, Lalpur, Natore</t>
-  </si>
-  <si>
-    <t>Trisha Electronics</t>
-  </si>
-  <si>
-    <t>Singra</t>
-  </si>
-  <si>
-    <t>Sri Ashish Chando P</t>
-  </si>
-  <si>
-    <t>Sigra</t>
-  </si>
-  <si>
-    <t>Singra, Natore</t>
-  </si>
-  <si>
-    <t>Bismillah Telecom Shardah</t>
-  </si>
-  <si>
-    <t>Shardah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md Lalchad </t>
-  </si>
-  <si>
-    <t>Charghat</t>
-  </si>
-  <si>
-    <t>Shardah Bazar</t>
-  </si>
-  <si>
-    <t>DSR-0246</t>
-  </si>
-  <si>
     <t>DSR-0350</t>
   </si>
   <si>
@@ -202,16 +115,46 @@
     <t>DSR-0351</t>
   </si>
   <si>
-    <t>Ma Electronics Nandangachi</t>
-  </si>
-  <si>
-    <t>Nandangachi</t>
-  </si>
-  <si>
-    <t>Md Sujon Ali</t>
-  </si>
-  <si>
     <t>Puthia</t>
+  </si>
+  <si>
+    <t>Mili Telecom</t>
+  </si>
+  <si>
+    <t>Moktarpur</t>
+  </si>
+  <si>
+    <t>Mst Selina Akter</t>
+  </si>
+  <si>
+    <t>Moktarpur, Puthia, Rajshahi.</t>
+  </si>
+  <si>
+    <t>Orient Digital Studio</t>
+  </si>
+  <si>
+    <t>Najirpur</t>
+  </si>
+  <si>
+    <t>Bhojon Shaha</t>
+  </si>
+  <si>
+    <t>Najirpur, Gurudaspur, Natore</t>
+  </si>
+  <si>
+    <t>Satata Enterprise</t>
+  </si>
+  <si>
+    <t>Arbab</t>
+  </si>
+  <si>
+    <t>Md Liton Ali</t>
+  </si>
+  <si>
+    <t>Arbab, Lalpur, Natore</t>
+  </si>
+  <si>
+    <t>Gurudaspur</t>
   </si>
 </sst>
 </file>
@@ -616,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,17 +654,15 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -729,26 +670,26 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1">
-        <v>1737356298</v>
+        <v>1713701277</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <v>1737356298</v>
+        <v>1713701277</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
@@ -760,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="T2" s="1">
-        <v>1737356298</v>
+        <v>1713701277</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,16 +709,16 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -785,26 +726,26 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1">
-        <v>1742752551</v>
+        <v>1712332465</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <v>1742752551</v>
+        <v>1712332465</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>22</v>
@@ -816,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="T3" s="1">
-        <v>1742752551</v>
+        <v>1712332465</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -824,44 +765,28 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1744747452</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1">
-        <v>1744747452</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
@@ -871,53 +796,35 @@
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="1">
-        <v>1744747452</v>
-      </c>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1773666320</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1">
-        <v>1773666320</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
@@ -927,53 +834,35 @@
       <c r="S5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="1">
-        <v>1773666320</v>
-      </c>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1724340349</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1">
-        <v>1724340349</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>22</v>
       </c>
@@ -983,53 +872,35 @@
       <c r="S6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="1">
-        <v>1724340349</v>
-      </c>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1737665665</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1">
-        <v>1737665665</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1039,25 +910,23 @@
       <c r="S7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="1">
-        <v>1737665665</v>
-      </c>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -1065,26 +934,26 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1">
-        <v>1762811173</v>
+        <v>1739925510</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
-        <v>1762811173</v>
+        <v>1739925510</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>22</v>
@@ -1096,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="T8" s="1">
-        <v>1762811173</v>
+        <v>1739925510</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">

--- a/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>RType</t>
   </si>
@@ -103,33 +103,15 @@
     <t>Lalpur</t>
   </si>
   <si>
-    <t>DSR-0350</t>
-  </si>
-  <si>
-    <t>DSR-0247</t>
-  </si>
-  <si>
-    <t>DSR-0619</t>
-  </si>
-  <si>
-    <t>DSR-0351</t>
-  </si>
-  <si>
     <t>Puthia</t>
   </si>
   <si>
     <t>Mili Telecom</t>
   </si>
   <si>
-    <t>Moktarpur</t>
-  </si>
-  <si>
     <t>Mst Selina Akter</t>
   </si>
   <si>
-    <t>Moktarpur, Puthia, Rajshahi.</t>
-  </si>
-  <si>
     <t>Orient Digital Studio</t>
   </si>
   <si>
@@ -155,6 +137,105 @@
   </si>
   <si>
     <t>Gurudaspur</t>
+  </si>
+  <si>
+    <t>Kisorpur</t>
+  </si>
+  <si>
+    <t>Md Shoriful Islam</t>
+  </si>
+  <si>
+    <t>Shorif Telecom Bagha</t>
+  </si>
+  <si>
+    <t>Kishorpur, Bagha, Rajshahi</t>
+  </si>
+  <si>
+    <t>Bagha</t>
+  </si>
+  <si>
+    <t>Rajshahi</t>
+  </si>
+  <si>
+    <t>Gazi Mobile Shop</t>
+  </si>
+  <si>
+    <t>Bonpara</t>
+  </si>
+  <si>
+    <t>Boraigram</t>
+  </si>
+  <si>
+    <t>Bonpara, Natore</t>
+  </si>
+  <si>
+    <t>Muktarpur</t>
+  </si>
+  <si>
+    <t>Muktarpur, Puthia, Rajshahi.</t>
+  </si>
+  <si>
+    <t>Mostak Telecom</t>
+  </si>
+  <si>
+    <t>Singra</t>
+  </si>
+  <si>
+    <t>Md Mostafizur Rahman</t>
+  </si>
+  <si>
+    <t>Jony Telecom</t>
+  </si>
+  <si>
+    <t>Bilmaria</t>
+  </si>
+  <si>
+    <t>Md Jony Alam</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Bilmaria , Lalpur, Natore.</t>
+  </si>
+  <si>
+    <t>Casio Corner</t>
+  </si>
+  <si>
+    <t>Station Bazar,Natore</t>
+  </si>
+  <si>
+    <t>Natore Sadar</t>
+  </si>
+  <si>
+    <t>Station Bazar, Natore</t>
+  </si>
+  <si>
+    <t>Ma Baba Enterprise</t>
+  </si>
+  <si>
+    <t>Salampur</t>
+  </si>
+  <si>
+    <t>M.M Imrul Kayes</t>
+  </si>
+  <si>
+    <t>Salampur, Lalpur, Natore</t>
+  </si>
+  <si>
+    <t>Babu Telecom</t>
+  </si>
+  <si>
+    <t>Md Sagor Gazi (Shakil)</t>
+  </si>
+  <si>
+    <t>Md Babu Islam</t>
+  </si>
+  <si>
+    <t>Bagha Bazar, Rajshahi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -233,22 +314,22 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,35 +641,35 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -650,19 +731,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -670,7 +751,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1">
         <v>1713701277</v>
@@ -679,13 +760,13 @@
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
@@ -704,21 +785,19 @@
         <v>1713701277</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -726,7 +805,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1">
         <v>1712332465</v>
@@ -741,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
@@ -764,29 +843,43 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1737152333</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1">
+        <v>1737152333</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
@@ -796,35 +889,51 @@
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1">
+        <v>1737152333</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1306403992</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1">
+        <v>1306403992</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
@@ -834,35 +943,51 @@
       <c r="S5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1">
+        <v>1306403992</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1719133352</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="M6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1">
+        <v>1719133352</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>22</v>
       </c>
@@ -872,35 +997,51 @@
       <c r="S6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1">
+        <v>1719133352</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1717978325</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>1717978325</v>
+      </c>
       <c r="Q7" s="1" t="s">
         <v>22</v>
       </c>
@@ -910,23 +1051,23 @@
       <c r="S7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1">
+        <v>1717978325</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -934,22 +1075,22 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1">
         <v>1739925510</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>33</v>
+      <c r="K8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>37</v>
+      <c r="N8" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
@@ -969,29 +1110,164 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1762864696</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="P9" s="1">
+        <v>1762864696</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1762864696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1734353794</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>1734353794</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1734353794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>RType</t>
   </si>
@@ -199,18 +199,6 @@
     <t>Bilmaria , Lalpur, Natore.</t>
   </si>
   <si>
-    <t>Casio Corner</t>
-  </si>
-  <si>
-    <t>Station Bazar,Natore</t>
-  </si>
-  <si>
-    <t>Natore Sadar</t>
-  </si>
-  <si>
-    <t>Station Bazar, Natore</t>
-  </si>
-  <si>
     <t>Ma Baba Enterprise</t>
   </si>
   <si>
@@ -235,7 +223,55 @@
     <t>Bagha Bazar, Rajshahi.</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>Nahid Telecom</t>
+  </si>
+  <si>
+    <t>Yousufpur</t>
+  </si>
+  <si>
+    <t>Md Nahid Akter</t>
+  </si>
+  <si>
+    <t>Charghat</t>
+  </si>
+  <si>
+    <t>Yousufpur, Charghat, Rajshahi</t>
+  </si>
+  <si>
+    <t>Singra, Natore</t>
+  </si>
+  <si>
+    <t>DSR-0248</t>
+  </si>
+  <si>
+    <t>DSR-0350</t>
+  </si>
+  <si>
+    <t>DSR-0349</t>
+  </si>
+  <si>
+    <t>DSR-0619</t>
+  </si>
+  <si>
+    <t>DSR-0247</t>
+  </si>
+  <si>
+    <t>DSR-0351</t>
+  </si>
+  <si>
+    <t>Mizan Telecom</t>
+  </si>
+  <si>
+    <t>Jamnogor</t>
+  </si>
+  <si>
+    <t>Md Mizanur Rahman</t>
+  </si>
+  <si>
+    <t>Jamnogor, Bagatipara, Natore</t>
+  </si>
+  <si>
+    <t>Bagatipara</t>
   </si>
 </sst>
 </file>
@@ -641,7 +677,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +771,9 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
@@ -789,7 +827,9 @@
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -843,7 +883,9 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
@@ -897,7 +939,9 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -905,7 +949,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -913,7 +957,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J5" s="1">
         <v>1306403992</v>
@@ -951,7 +995,9 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
@@ -982,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
@@ -1005,15 +1051,17 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1021,7 +1069,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1">
         <v>1717978325</v>
@@ -1036,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
@@ -1059,7 +1107,9 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1113,7 +1163,9 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1167,35 +1219,45 @@
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1717171034</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>1717171034</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1205,21 +1267,25 @@
       <c r="S10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="1"/>
+      <c r="T10" s="1">
+        <v>1717171034</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -1227,7 +1293,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1">
         <v>1734353794</v>
@@ -1242,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
@@ -1261,9 +1327,60 @@
         <v>1734353794</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>73</v>
+    <row r="12" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1713761366</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>1713761366</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1713761366</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
